--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/yys/yys.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/yys/yys.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/app_nonobank_ui_testing/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/bankCard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/app_nonobank_ui_testing/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/yys/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,12 @@
       <t>ch'gong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
   </si>
 </sst>
 </file>
@@ -475,95 +481,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-    <col min="7" max="7" width="45.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>6</v>
       </c>
     </row>
